--- a/outputs/COMPAGNIE MEDITERRANEENNE D_/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_-_2024_passif_Etats_financiers_au_31_12_validated.xlsx
+++ b/outputs/COMPAGNIE MEDITERRANEENNE D_/COMPAGNIE_MEDITERRANEENNE_D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_-_2024_passif_Etats_financiers_au_31_12_validated.xlsx
@@ -9,9 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$H$32</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -19,20 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -51,27 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -440,1230 +416,1218 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="55" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Sous-catégorie</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Code</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>31/12/2024</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>31/12/2023</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>ValidationResult</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Assurance</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>CAPITAUX PROPRES</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Capital social</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>CP1</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve">  Capital social ou fonds équivalent</t>
         </is>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" t="n">
         <v>75000000</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" t="n">
         <v>75000000</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>CAPITAUX PROPRES</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Réserves et primes</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>CP2</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve">  Réserves et primes liées au capital</t>
         </is>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" t="n">
         <v>175755499</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" t="n">
         <v>157974773</v>
       </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>CAPITAUX PROPRES</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Autres capitaux propres</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>CP4</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve">  Autres capitaux propres</t>
         </is>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" t="n">
         <v>31664180</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" t="n">
         <v>27278180</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">    Total capitaux propres avant résultat de l'exercice</t>
         </is>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" t="n">
         <v>282419679</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" t="n">
         <v>260252953</v>
       </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>CAPITAUX PROPRES</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Résultat de l'exercice</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>CP6</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">  Résultat de l'exercice</t>
         </is>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" t="n">
         <v>63601376</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" t="n">
         <v>44166726</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t xml:space="preserve">    Total Capitaux propres avant affectation CP1</t>
         </is>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" t="n">
         <v>346021055</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" t="n">
         <v>304419679</v>
       </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Provisions pour risques et charges</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>PA2</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t xml:space="preserve">  Provisions pour autres risques et charges</t>
         </is>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" t="n">
         <v>4298334</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" t="n">
         <v>3853870</v>
       </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>PA3</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t xml:space="preserve">  Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" t="n">
         <v>566553252</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" t="n">
         <v>549182226</v>
       </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>PA310</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t xml:space="preserve">    Provisions pour primes non acquises</t>
         </is>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" t="n">
         <v>74059612</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" t="n">
         <v>73739223</v>
       </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>PA320</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve">    Provisions d'assurance vie</t>
         </is>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" t="n">
         <v>792648</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" t="n">
         <v>1079008</v>
       </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>PA330</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t xml:space="preserve">    Provision pour sinistres (vie)</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" t="n">
         <v>4193129</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" t="n">
         <v>4896108</v>
       </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>PA331</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t xml:space="preserve">    Provision pour sinistres (non vie)</t>
         </is>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" t="n">
         <v>412462193</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" t="n">
         <v>398226775</v>
       </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>PA341</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">    Provisions pour participations aux bénéfices et ristournes (non vie)</t>
         </is>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" t="n">
         <v>15926463</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" t="n">
         <v>13919676</v>
       </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>PA350</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve">    Provisions pour égalisation et équilibrage</t>
         </is>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" t="n">
         <v>43723305</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" t="n">
         <v>39589848</v>
       </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Provisions techniques brutes</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>PA361</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t xml:space="preserve">    Autres povisions techniques (non vie)</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" t="n">
         <v>15395903</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" t="n">
         <v>17731587</v>
       </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Dettes pour dépôts</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>PA5</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t xml:space="preserve">  Dettes pour dépôts en espèces reçus des cessionnaires</t>
         </is>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" t="n">
         <v>90960701</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" t="n">
         <v>86234212</v>
       </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>PA6</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve">  Autres dettes</t>
         </is>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" t="n">
         <v>120231072</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" t="n">
         <v>87551925</v>
       </c>
-      <c r="G18" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>PA61</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dettes nées d'opérations d'assurance directe</t>
         </is>
       </c>
-      <c r="E19" s="3" t="n">
+      <c r="E19" t="n">
         <v>32249776</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" t="n">
         <v>23173774</v>
       </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>PA62</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dettes nées d'opérations de réassurance</t>
         </is>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" t="n">
         <v>46882978</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" t="n">
         <v>45558454</v>
       </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>PA63</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t xml:space="preserve">    Autres dettes</t>
         </is>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" t="n">
         <v>41098319</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" t="n">
         <v>18819697</v>
       </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>PA631</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t xml:space="preserve">    Dépôts et cautionnements reçus</t>
         </is>
       </c>
-      <c r="E22" s="3" t="n">
+      <c r="E22" t="n">
         <v>4085576</v>
       </c>
-      <c r="F22" s="3" t="n">
+      <c r="F22" t="n">
         <v>3972200</v>
       </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>PA632</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">    Personnel</t>
         </is>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" t="n">
         <v>53624</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" t="n">
         <v>136927</v>
       </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>PA633</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t xml:space="preserve">    Etat, organismes de sécurité sociale, collectivités publiques</t>
         </is>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" t="n">
         <v>28026534</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" t="n">
         <v>9979494</v>
       </c>
-      <c r="G24" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Autres dettes</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>PA634</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t xml:space="preserve">    Créditeurs divers</t>
         </is>
       </c>
-      <c r="E25" s="3" t="n">
+      <c r="E25" t="n">
         <v>8932585</v>
       </c>
-      <c r="F25" s="3" t="n">
+      <c r="F25" t="n">
         <v>4731077</v>
       </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Autres passifs</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>PA7</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t xml:space="preserve">  Autres passifs</t>
         </is>
       </c>
-      <c r="E26" s="3" t="n">
+      <c r="E26" t="n">
         <v>17327730</v>
       </c>
-      <c r="F26" s="3" t="n">
+      <c r="F26" t="n">
         <v>12385126</v>
       </c>
-      <c r="G26" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H26" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Comptes de régularisation</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>PA71</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t xml:space="preserve">  Compte de régularisation Passif</t>
         </is>
       </c>
-      <c r="E27" s="3" t="n">
+      <c r="E27" t="n">
         <v>17324307</v>
       </c>
-      <c r="F27" s="3" t="n">
+      <c r="F27" t="n">
         <v>12385126</v>
       </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H27" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Comptes de régularisation</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>PA710</t>
         </is>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t xml:space="preserve">    Report de commissions reçues des réassureurs</t>
         </is>
       </c>
-      <c r="E28" s="3" t="n">
+      <c r="E28" t="n">
         <v>479157</v>
       </c>
-      <c r="F28" s="3" t="n">
+      <c r="F28" t="n">
         <v>268953</v>
       </c>
-      <c r="G28" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Comptes de régularisation</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>PA712</t>
         </is>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t xml:space="preserve">    Autres comptes de régularisation Passif</t>
         </is>
       </c>
-      <c r="E29" s="3" t="n">
+      <c r="E29" t="n">
         <v>16845150</v>
       </c>
-      <c r="F29" s="3" t="n">
+      <c r="F29" t="n">
         <v>12116173</v>
       </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>PA73</t>
         </is>
       </c>
-      <c r="D30" s="2" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t xml:space="preserve">    Autres passifs financiers</t>
         </is>
       </c>
-      <c r="E30" s="3" t="n">
+      <c r="E30" t="n">
         <v>3423</v>
       </c>
-      <c r="F30" s="3" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>‐</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr"/>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t xml:space="preserve">    Total du Passif</t>
         </is>
       </c>
-      <c r="E31" s="3" t="n">
+      <c r="E31" t="n">
         <v>799371089</v>
       </c>
-      <c r="F31" s="3" t="n">
+      <c r="F31" t="n">
         <v>739207359</v>
       </c>
-      <c r="G31" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H31" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>PASSIF</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PASSIF</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve">    TOTAL DES CAPITAUX PROPRES ET DU PASSIF</t>
         </is>
       </c>
-      <c r="E32" s="3" t="n">
+      <c r="E32" t="n">
         <v>1145392144</v>
       </c>
-      <c r="F32" s="3" t="n">
+      <c r="F32" t="n">
         <v>1043627038</v>
       </c>
-      <c r="G32" s="3" t="inlineStr">
-        <is>
-          <t>PASS</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>COMPAGNIE MEDITERRANEENNE D_ASSURANCES_ET_DE_REASSURANCES_-_COMAR_</t>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>COMPAGNIE MEDITERRANEENNE D'ASSURANCES ET DE REASSURANCES - COMAR -</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H32"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>